--- a/data/pracdatasheet.xlsx
+++ b/data/pracdatasheet.xlsx
@@ -18936,23 +18936,23 @@
       <formula1>0.0</formula1>
       <formula2>4.0</formula2>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="H1:H1000">
+      <formula1>0.0</formula1>
+      <formula2>24.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter a number between 0 and 14" sqref="E1:E1000">
+      <formula1>0.0</formula1>
+      <formula2>14.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B1:B1000">
+      <formula1>RangeLimits!$B$1:$B$4</formula1>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D1:D1000">
       <formula1>0.0</formula1>
       <formula2>100.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="H1:H1000">
-      <formula1>0.0</formula1>
-      <formula2>24.0</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="A1:A1000">
       <formula1>RangeLimits!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B1:B1000">
-      <formula1>RangeLimits!$B$1:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter a number between 0 and 14" sqref="E1:E1000">
-      <formula1>0.0</formula1>
-      <formula2>14.0</formula2>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -30331,37 +30331,37 @@
     <dataValidation type="list" allowBlank="1" sqref="C1:C295">
       <formula1>Sites!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="K1:K295">
-      <formula1>0.0</formula1>
-      <formula2>100.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="E1:E295">
-      <formula1>1.0</formula1>
-      <formula2>3.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A1:A295">
-      <formula1>RangeLimits!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="I1:I295">
-      <formula1>5.0</formula1>
-      <formula2>1000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B1:B295">
-      <formula1>RangeLimits!$B$1:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D1:D295">
-      <formula1>1.0</formula1>
-      <formula2>5.0</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G1:G250 G254:G295">
       <formula1>RangeSpecies!$C:$C</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="H1:H295">
       <formula1>RangeSpecies!$D:$D</formula1>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="I1:I295">
+      <formula1>5.0</formula1>
+      <formula2>1000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D1:D295">
+      <formula1>1.0</formula1>
+      <formula2>5.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="E1:E295">
+      <formula1>1.0</formula1>
+      <formula2>3.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B1:B295">
+      <formula1>RangeLimits!$B$1:$B$4</formula1>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="J1:J295">
       <formula1>0.0</formula1>
       <formula2>1000.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="K1:K295">
+      <formula1>0.0</formula1>
+      <formula2>100.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A1:A295">
+      <formula1>RangeLimits!$A$1:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -46019,11 +46019,8 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="A1:A1000">
-      <formula1>RangeLimits!$A$1:$A$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B1:B1000">
-      <formula1>RangeLimits!$B$1:$B$4</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="D1:D197 D199:D1000">
+      <formula1>RangeSpecies!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E1:E28 E30:E45 E47:E1000">
       <formula1>RangeSpecies!$C:$C</formula1>
@@ -46031,8 +46028,11 @@
     <dataValidation type="list" allowBlank="1" sqref="F1:F1000">
       <formula1>RangeSpecies!$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D197 D199:D1000">
-      <formula1>RangeSpecies!$A:$A</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="B1:B1000">
+      <formula1>RangeLimits!$B$1:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A1:A1000">
+      <formula1>RangeLimits!$A$1:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
